--- a/data/trans_dic/P8_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,42; 16,54</t>
+          <t>8,51; 16,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,33; 23,87</t>
+          <t>14,45; 23,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,14; 20,75</t>
+          <t>12,47; 20,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,92; 23,88</t>
+          <t>13,89; 23,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,81; 34,39</t>
+          <t>22,65; 34,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 23,58</t>
+          <t>16,68; 23,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,24; 18,47</t>
+          <t>12,14; 18,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,75; 27,45</t>
+          <t>19,9; 27,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,44; 20,98</t>
+          <t>15,72; 20,93</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,41; 15,6</t>
+          <t>9,53; 15,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,64; 18,95</t>
+          <t>11,41; 18,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,54; 14,99</t>
+          <t>9,17; 15,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,89; 20,76</t>
+          <t>13,62; 21,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,75; 28,53</t>
+          <t>20,54; 28,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,36; 31,55</t>
+          <t>23,57; 31,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 24,78</t>
+          <t>17,14; 24,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,2; 27,31</t>
+          <t>20,75; 27,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,97; 20,98</t>
+          <t>15,99; 20,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,85; 24,04</t>
+          <t>18,73; 24,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 19,12</t>
+          <t>14,41; 19,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,4; 23,48</t>
+          <t>18,32; 23,03</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 10,71</t>
+          <t>4,89; 11,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,61; 18,82</t>
+          <t>10,78; 19,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 17,58</t>
+          <t>10,41; 17,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,51; 17,13</t>
+          <t>10,44; 17,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,19; 26,24</t>
+          <t>17,0; 26,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,77; 28,07</t>
+          <t>19,03; 29,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,67; 24,93</t>
+          <t>15,31; 24,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,72; 23,31</t>
+          <t>16,8; 23,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,94; 17,32</t>
+          <t>11,92; 17,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,06; 22,45</t>
+          <t>16,01; 22,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,95; 19,97</t>
+          <t>14,04; 19,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,58; 19,21</t>
+          <t>14,53; 19,35</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 12,87</t>
+          <t>6,55; 12,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,7; 18,73</t>
+          <t>12,77; 18,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 18,46</t>
+          <t>10,83; 18,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,83; 24,66</t>
+          <t>14,37; 24,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,5; 25,06</t>
+          <t>16,57; 24,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,21; 33,31</t>
+          <t>26,29; 33,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,57; 30,91</t>
+          <t>21,35; 30,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,43; 25,62</t>
+          <t>18,13; 25,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,54; 17,87</t>
+          <t>12,45; 17,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,43; 25,12</t>
+          <t>20,29; 24,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,37; 23,5</t>
+          <t>17,36; 23,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,93; 23,81</t>
+          <t>17,95; 23,5</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 11,58</t>
+          <t>4,34; 11,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,77; 22,57</t>
+          <t>11,91; 22,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,88; 17,47</t>
+          <t>8,82; 18,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,78; 16,16</t>
+          <t>9,19; 16,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,98; 22,86</t>
+          <t>11,75; 22,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,06; 34,72</t>
+          <t>22,59; 35,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,89; 28,21</t>
+          <t>17,06; 28,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,51; 25,63</t>
+          <t>14,82; 25,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,29; 15,7</t>
+          <t>9,51; 15,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,81; 27,06</t>
+          <t>19,01; 27,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,9; 21,32</t>
+          <t>13,94; 21,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,17; 20,21</t>
+          <t>14,23; 20,45</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,42; 14,86</t>
+          <t>7,05; 14,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,02; 23,56</t>
+          <t>13,91; 23,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,96; 25,89</t>
+          <t>15,93; 26,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,78; 14,02</t>
+          <t>7,66; 14,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,27; 30,43</t>
+          <t>20,2; 30,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,13; 32,92</t>
+          <t>21,39; 32,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,65; 37,15</t>
+          <t>25,68; 37,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,86; 20,31</t>
+          <t>14,02; 20,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,28; 21,52</t>
+          <t>14,88; 21,93</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,1; 26,73</t>
+          <t>19,16; 26,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,14; 29,61</t>
+          <t>21,92; 29,75</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,69; 16,01</t>
+          <t>11,82; 16,13</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,16</t>
+          <t>9,92; 14,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,52; 15,06</t>
+          <t>9,77; 15,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,76; 16,31</t>
+          <t>10,91; 16,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,9; 19,94</t>
+          <t>13,58; 19,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,18; 24,63</t>
+          <t>18,05; 24,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,15; 27,12</t>
+          <t>20,18; 27,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,97; 24,61</t>
+          <t>18,38; 24,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,04; 25,29</t>
+          <t>13,28; 25,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,83; 18,96</t>
+          <t>14,76; 19,21</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,97; 20,29</t>
+          <t>15,87; 20,18</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,35; 19,77</t>
+          <t>15,54; 19,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,97; 21,34</t>
+          <t>14,3; 21,56</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,67; 15,59</t>
+          <t>10,75; 15,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,49; 16,9</t>
+          <t>11,88; 17,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,02</t>
+          <t>9,52; 14,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,17; 34,88</t>
+          <t>12,43; 36,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,34; 24,36</t>
+          <t>18,25; 24,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,31; 24,47</t>
+          <t>18,35; 24,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,78; 22,62</t>
+          <t>17,11; 22,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,72; 27,44</t>
+          <t>21,58; 27,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15,15; 19,03</t>
+          <t>15,15; 19,19</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>15,72; 19,76</t>
+          <t>15,91; 20,07</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13,82; 17,66</t>
+          <t>13,98; 17,7</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,36; 30,05</t>
+          <t>18,48; 30,54</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,13; 12,3</t>
+          <t>10,1; 12,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,31; 15,88</t>
+          <t>13,43; 16,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,09</t>
+          <t>12,67; 15,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,43; 20,74</t>
+          <t>14,46; 21,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,21; 23,05</t>
+          <t>19,99; 22,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,93; 26,89</t>
+          <t>23,82; 26,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,15; 24,22</t>
+          <t>21,11; 24,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,59; 23,12</t>
+          <t>19,35; 23,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>15,48; 17,34</t>
+          <t>15,53; 17,29</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19,24; 21,19</t>
+          <t>19,02; 21,05</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>17,31; 19,35</t>
+          <t>17,43; 19,35</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,07; 21,26</t>
+          <t>18,13; 21,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,51; 16,24</t>
+          <t>8,63; 16,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,45; 23,74</t>
+          <t>14,22; 24,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,89; 23,19</t>
+          <t>14,22; 24,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,65; 34,19</t>
+          <t>23,27; 33,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,14; 18,33</t>
+          <t>11,77; 18,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,9; 27,02</t>
+          <t>19,92; 27,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,53; 15,29</t>
+          <t>9,36; 15,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,41; 18,59</t>
+          <t>11,57; 18,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,17; 15,09</t>
+          <t>9,39; 15,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,54; 28,37</t>
+          <t>20,71; 28,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,57; 31,35</t>
+          <t>23,45; 31,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,14; 24,69</t>
+          <t>17,73; 25,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,99; 20,81</t>
+          <t>15,99; 21,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,73; 24,22</t>
+          <t>18,69; 23,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,41; 19,07</t>
+          <t>14,48; 19,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 11,03</t>
+          <t>4,99; 11,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,78; 19,22</t>
+          <t>11,03; 19,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,41; 17,37</t>
+          <t>10,26; 17,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,0; 26,1</t>
+          <t>16,96; 25,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,03; 29,01</t>
+          <t>18,69; 28,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,31; 24,27</t>
+          <t>15,78; 25,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,92; 17,52</t>
+          <t>11,93; 17,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,01; 22,49</t>
+          <t>16,32; 22,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,04; 19,98</t>
+          <t>14,14; 19,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 12,29</t>
+          <t>6,62; 12,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,77; 18,8</t>
+          <t>12,54; 18,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 18,16</t>
+          <t>10,84; 18,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,57; 24,78</t>
+          <t>16,11; 24,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,29; 33,36</t>
+          <t>26,39; 33,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,35; 30,62</t>
+          <t>21,78; 31,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,45; 17,83</t>
+          <t>12,3; 17,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,29; 24,88</t>
+          <t>20,52; 25,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,36; 23,43</t>
+          <t>17,4; 23,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,34; 11,35</t>
+          <t>4,54; 11,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,91; 22,14</t>
+          <t>11,48; 22,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,82; 18,16</t>
+          <t>8,74; 17,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,75; 22,42</t>
+          <t>11,83; 22,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,59; 35,03</t>
+          <t>22,23; 34,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,06; 28,13</t>
+          <t>17,01; 29,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,51; 15,81</t>
+          <t>9,18; 15,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,01; 27,09</t>
+          <t>18,73; 27,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,94; 21,14</t>
+          <t>14,17; 21,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,05; 14,49</t>
+          <t>7,55; 15,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,91; 23,14</t>
+          <t>13,96; 23,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,93; 26,1</t>
+          <t>15,85; 25,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,2; 30,97</t>
+          <t>20,04; 30,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,39; 32,5</t>
+          <t>21,9; 33,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,68; 37,01</t>
+          <t>25,42; 37,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,88; 21,93</t>
+          <t>14,86; 21,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,16; 26,6</t>
+          <t>19,33; 26,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,92; 29,75</t>
+          <t>22,14; 30,15</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,92; 14,99</t>
+          <t>9,97; 15,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,77; 15,23</t>
+          <t>9,68; 14,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,91; 16,43</t>
+          <t>10,95; 16,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,05; 24,79</t>
+          <t>18,09; 24,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,18; 27,08</t>
+          <t>20,12; 27,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,38; 24,64</t>
+          <t>17,93; 24,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,76; 19,21</t>
+          <t>14,92; 19,04</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,87; 20,18</t>
+          <t>15,85; 20,28</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,54; 19,76</t>
+          <t>15,54; 19,91</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,75; 15,37</t>
+          <t>10,7; 15,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,88; 17,04</t>
+          <t>11,64; 17,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,04</t>
+          <t>9,63; 14,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,25; 24,48</t>
+          <t>18,11; 24,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,35; 24,16</t>
+          <t>18,57; 24,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,11; 22,7</t>
+          <t>16,72; 22,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15,15; 19,19</t>
+          <t>15,33; 19,0</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>15,91; 20,07</t>
+          <t>15,87; 20,06</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13,98; 17,7</t>
+          <t>13,98; 17,58</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,1; 12,34</t>
+          <t>10,25; 12,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,43; 16,08</t>
+          <t>13,34; 16,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,67; 15,03</t>
+          <t>12,81; 15,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19,99; 22,83</t>
+          <t>19,97; 22,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,82; 26,69</t>
+          <t>23,79; 26,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,11; 24,14</t>
+          <t>21,24; 24,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>15,53; 17,29</t>
+          <t>15,48; 17,27</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19,02; 21,05</t>
+          <t>19,07; 21,06</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>17,43; 19,35</t>
+          <t>17,39; 19,28</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P8_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,63; 16,31</t>
+          <t>8,42; 16,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,22; 24,17</t>
+          <t>14,33; 23,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,47; 20,79</t>
+          <t>12,14; 20,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,22; 24,16</t>
+          <t>13,92; 23,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,27; 33,53</t>
+          <t>22,81; 34,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,68; 23,5</t>
+          <t>16,86; 23,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,77; 18,29</t>
+          <t>12,24; 18,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,92; 27,38</t>
+          <t>19,75; 27,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,72; 20,93</t>
+          <t>15,44; 20,98</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,36; 15,13</t>
+          <t>9,41; 15,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,57; 18,41</t>
+          <t>11,64; 18,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,39; 15,25</t>
+          <t>9,54; 14,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,62; 21,06</t>
+          <t>13,89; 20,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,71; 28,02</t>
+          <t>20,75; 28,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,45; 31,52</t>
+          <t>23,36; 31,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,73; 25,27</t>
+          <t>17,28; 24,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,75; 27,14</t>
+          <t>21,2; 27,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,99; 21,02</t>
+          <t>15,97; 20,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,69; 23,94</t>
+          <t>18,85; 24,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,48; 19,27</t>
+          <t>14,23; 19,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,32; 23,03</t>
+          <t>18,4; 23,48</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 11,18</t>
+          <t>4,84; 10,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,03; 19,05</t>
+          <t>10,61; 18,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,26; 17,33</t>
+          <t>10,22; 17,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,44; 17,21</t>
+          <t>10,51; 17,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,96; 25,99</t>
+          <t>17,19; 26,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,69; 28,32</t>
+          <t>18,77; 28,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,78; 25,28</t>
+          <t>15,67; 24,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,8; 23,51</t>
+          <t>16,72; 23,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,93; 17,32</t>
+          <t>11,94; 17,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,32; 22,31</t>
+          <t>16,06; 22,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 19,95</t>
+          <t>13,95; 19,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,53; 19,35</t>
+          <t>14,58; 19,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 12,32</t>
+          <t>6,39; 12,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,54; 18,56</t>
+          <t>12,7; 18,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,84; 18,01</t>
+          <t>11,3; 18,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,37; 24,24</t>
+          <t>14,83; 24,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,11; 24,56</t>
+          <t>16,5; 25,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,39; 33,13</t>
+          <t>26,21; 33,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,78; 31,51</t>
+          <t>21,57; 30,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,13; 25,5</t>
+          <t>18,43; 25,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,3; 17,57</t>
+          <t>12,54; 17,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,52; 25,19</t>
+          <t>20,43; 25,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 23,46</t>
+          <t>17,37; 23,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 23,5</t>
+          <t>17,93; 23,81</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,58</t>
+          <t>4,4; 11,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,48; 22,67</t>
+          <t>11,77; 22,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,74; 17,29</t>
+          <t>8,88; 17,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,19; 16,49</t>
+          <t>8,78; 16,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,83; 22,82</t>
+          <t>11,98; 22,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,23; 34,95</t>
+          <t>23,06; 34,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,01; 29,17</t>
+          <t>16,89; 28,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,82; 25,56</t>
+          <t>14,51; 25,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,18; 15,44</t>
+          <t>9,29; 15,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,73; 27,25</t>
+          <t>18,81; 27,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,17; 21,89</t>
+          <t>13,9; 21,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,23; 20,45</t>
+          <t>14,17; 20,21</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,55; 15,14</t>
+          <t>7,42; 14,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,96; 23,05</t>
+          <t>14,02; 23,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,85; 25,97</t>
+          <t>15,96; 25,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,66; 14,01</t>
+          <t>7,78; 14,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,04; 30,9</t>
+          <t>20,27; 30,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,9; 33,0</t>
+          <t>22,13; 32,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,42; 37,02</t>
+          <t>25,65; 37,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,02; 20,25</t>
+          <t>13,86; 20,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,86; 21,66</t>
+          <t>15,28; 21,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,33; 26,45</t>
+          <t>19,1; 26,73</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,14; 30,15</t>
+          <t>22,14; 29,61</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,82; 16,13</t>
+          <t>11,69; 16,01</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,97; 15,15</t>
+          <t>10,02; 15,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,68; 14,99</t>
+          <t>9,52; 15,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,95; 16,53</t>
+          <t>10,76; 16,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,58; 19,75</t>
+          <t>13,9; 19,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,09; 24,55</t>
+          <t>18,18; 24,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,12; 27,04</t>
+          <t>20,15; 27,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,93; 24,65</t>
+          <t>17,97; 24,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,28; 25,08</t>
+          <t>13,04; 25,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,92; 19,04</t>
+          <t>14,83; 18,96</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,85; 20,28</t>
+          <t>15,97; 20,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,54; 19,91</t>
+          <t>15,35; 19,77</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,3; 21,56</t>
+          <t>13,97; 21,34</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,7; 15,47</t>
+          <t>10,67; 15,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,64; 17,01</t>
+          <t>11,49; 16,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,03</t>
+          <t>9,52; 14,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,43; 36,28</t>
+          <t>12,17; 34,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,11; 24,23</t>
+          <t>18,34; 24,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,57; 24,43</t>
+          <t>18,31; 24,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,72; 22,8</t>
+          <t>16,78; 22,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,58; 27,03</t>
+          <t>21,72; 27,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15,33; 19,0</t>
+          <t>15,15; 19,03</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>15,87; 20,06</t>
+          <t>15,72; 19,76</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13,98; 17,58</t>
+          <t>13,82; 17,66</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,48; 30,54</t>
+          <t>18,36; 30,05</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,25; 12,43</t>
+          <t>10,13; 12,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,34; 16,0</t>
+          <t>13,31; 15,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,81; 15,11</t>
+          <t>12,77; 15,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,46; 21,12</t>
+          <t>14,43; 20,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19,97; 22,75</t>
+          <t>20,21; 23,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,79; 26,93</t>
+          <t>23,93; 26,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,24; 24,12</t>
+          <t>21,15; 24,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,35; 23,29</t>
+          <t>19,59; 23,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>15,48; 17,27</t>
+          <t>15,48; 17,34</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19,07; 21,06</t>
+          <t>19,24; 21,19</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>17,39; 19,28</t>
+          <t>17,31; 19,35</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,13; 21,32</t>
+          <t>18,07; 21,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>17,09%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,2; 21,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,14; 20,75</t>
+          <t>11,18; 19,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,92; 34,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 23,58</t>
+          <t>16,08; 22,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,87; 25,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,44; 20,98</t>
+          <t>14,38; 19,81</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>19,94%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,89; 20,76</t>
+          <t>12,98; 19,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,2; 27,31</t>
+          <t>20,93; 27,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,4; 23,48</t>
+          <t>17,6; 22,67</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>16,4%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,51; 17,13</t>
+          <t>10,15; 16,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,72; 23,31</t>
+          <t>16,48; 22,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,58; 19,21</t>
+          <t>14,21; 18,8</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>18,48%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,7; 18,73</t>
+          <t>11,55; 19,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,83; 24,66</t>
+          <t>14,54; 24,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,21; 33,31</t>
+          <t>26,28; 35,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,43; 25,62</t>
+          <t>10,59; 23,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,43; 25,12</t>
+          <t>19,5; 25,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,93; 23,81</t>
+          <t>13,31; 21,79</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>16,43%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,78; 16,16</t>
+          <t>8,72; 16,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,51; 25,63</t>
+          <t>10,46; 25,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,17; 20,21</t>
+          <t>10,95; 19,62</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>13,59%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,78; 14,02</t>
+          <t>7,62; 13,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,86; 20,31</t>
+          <t>13,86; 20,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,69; 16,01</t>
+          <t>11,54; 15,88</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>17,32%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,9; 19,94</t>
+          <t>13,43; 19,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,04; 25,29</t>
+          <t>9,1; 24,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,97; 21,34</t>
+          <t>10,49; 20,69</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>31,01%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,17; 34,88</t>
+          <t>12,32; 69,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,72; 27,44</t>
+          <t>21,81; 27,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,36; 30,05</t>
+          <t>18,46; 56,88</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>20,53%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,43; 20,74</t>
+          <t>14,23; 38,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,59; 23,12</t>
+          <t>16,33; 22,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,07; 21,26</t>
+          <t>17,23; 31,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,42; 16,54</t>
+          <t>8,55; 16,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,2; 21,14</t>
+          <t>12,47; 21,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,33; 23,87</t>
+          <t>14,75; 24,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,18; 19,39</t>
+          <t>11,27; 19,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,92; 23,88</t>
+          <t>14,16; 23,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,92; 34,29</t>
+          <t>23,13; 34,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,81; 34,39</t>
+          <t>22,73; 33,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,08; 22,66</t>
+          <t>15,96; 22,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,24; 18,47</t>
+          <t>12,22; 18,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,87; 25,98</t>
+          <t>19,27; 26,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,75; 27,45</t>
+          <t>19,93; 27,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,38; 19,81</t>
+          <t>14,58; 19,81</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,41; 15,6</t>
+          <t>9,5; 15,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,64; 18,95</t>
+          <t>11,53; 19,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,54; 14,99</t>
+          <t>9,38; 15,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,98; 19,68</t>
+          <t>12,96; 20,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,75; 28,53</t>
+          <t>20,56; 28,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,36; 31,55</t>
+          <t>23,52; 31,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,28; 24,78</t>
+          <t>17,37; 25,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,93; 27,0</t>
+          <t>20,33; 26,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,97; 20,98</t>
+          <t>15,96; 20,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,85; 24,04</t>
+          <t>18,19; 23,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 19,12</t>
+          <t>14,11; 18,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,6; 22,67</t>
+          <t>17,7; 22,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 10,71</t>
+          <t>4,93; 11,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,61; 18,82</t>
+          <t>10,81; 19,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 17,58</t>
+          <t>10,4; 17,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,15; 16,64</t>
+          <t>10,04; 16,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,19; 26,24</t>
+          <t>16,91; 25,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,77; 28,07</t>
+          <t>18,92; 28,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,67; 24,93</t>
+          <t>15,16; 24,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,48; 22,96</t>
+          <t>16,63; 22,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,94; 17,32</t>
+          <t>11,92; 17,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,06; 22,45</t>
+          <t>15,92; 22,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,95; 19,97</t>
+          <t>14,11; 19,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,21; 18,8</t>
+          <t>14,2; 18,59</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 12,87</t>
+          <t>6,72; 12,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,55; 19,09</t>
+          <t>11,05; 19,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 18,46</t>
+          <t>10,77; 18,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 24,62</t>
+          <t>14,65; 24,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,5; 25,06</t>
+          <t>16,91; 24,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,28; 35,4</t>
+          <t>26,37; 35,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,57; 30,91</t>
+          <t>21,43; 31,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 23,03</t>
+          <t>10,18; 23,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,54; 17,87</t>
+          <t>12,56; 17,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,5; 25,85</t>
+          <t>19,84; 26,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,37; 23,5</t>
+          <t>17,23; 23,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,31; 21,79</t>
+          <t>13,26; 21,9</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 11,58</t>
+          <t>4,53; 11,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,77; 22,57</t>
+          <t>11,55; 22,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,88; 17,47</t>
+          <t>8,63; 17,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,0</t>
+          <t>8,71; 16,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,98; 22,86</t>
+          <t>12,11; 22,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,06; 34,72</t>
+          <t>22,46; 34,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,89; 28,21</t>
+          <t>16,75; 28,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,46; 25,21</t>
+          <t>10,34; 25,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,29; 15,7</t>
+          <t>9,04; 15,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,81; 27,06</t>
+          <t>18,77; 26,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13,9; 21,32</t>
+          <t>14,25; 21,48</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,95; 19,62</t>
+          <t>11,03; 19,55</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,42; 14,86</t>
+          <t>7,41; 14,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,02; 23,56</t>
+          <t>13,66; 23,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,96; 25,89</t>
+          <t>15,83; 26,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,62; 13,86</t>
+          <t>7,7; 13,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,27; 30,43</t>
+          <t>19,64; 30,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,13; 32,92</t>
+          <t>21,68; 32,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,65; 37,15</t>
+          <t>25,36; 36,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,86; 20,28</t>
+          <t>14,02; 20,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,28; 21,52</t>
+          <t>15,01; 22,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,1; 26,73</t>
+          <t>19,14; 26,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,14; 29,61</t>
+          <t>22,27; 30,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,54; 15,88</t>
+          <t>11,44; 15,68</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,16</t>
+          <t>10,04; 15,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,52; 15,06</t>
+          <t>9,74; 15,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,76; 16,31</t>
+          <t>10,78; 16,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,43; 19,54</t>
+          <t>13,14; 19,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,18; 24,63</t>
+          <t>18,22; 24,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,15; 27,12</t>
+          <t>20,34; 27,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,97; 24,61</t>
+          <t>18,35; 24,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,1; 24,9</t>
+          <t>9,59; 24,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,83; 18,96</t>
+          <t>14,83; 19,09</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,97; 20,29</t>
+          <t>15,83; 20,06</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,35; 19,77</t>
+          <t>15,47; 19,94</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,49; 20,69</t>
+          <t>10,82; 20,66</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,67; 15,59</t>
+          <t>10,8; 15,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,49; 16,9</t>
+          <t>11,81; 17,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,02</t>
+          <t>9,56; 14,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,32; 69,31</t>
+          <t>12,56; 71,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,34; 24,36</t>
+          <t>18,15; 24,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,31; 24,47</t>
+          <t>18,4; 24,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,78; 22,62</t>
+          <t>16,84; 22,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,81; 27,36</t>
+          <t>21,95; 27,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15,15; 19,03</t>
+          <t>15,3; 19,19</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>15,72; 19,76</t>
+          <t>16,01; 19,95</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13,82; 17,66</t>
+          <t>14,0; 17,74</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,46; 56,88</t>
+          <t>18,47; 57,19</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,13; 12,3</t>
+          <t>10,18; 12,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,31; 15,88</t>
+          <t>13,41; 15,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,09</t>
+          <t>12,78; 15,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,23; 38,31</t>
+          <t>14,31; 38,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,21; 23,05</t>
+          <t>20,0; 22,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,93; 26,89</t>
+          <t>23,87; 26,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>21,15; 24,22</t>
+          <t>21,13; 24,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,33; 22,19</t>
+          <t>16,68; 22,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>15,48; 17,34</t>
+          <t>15,49; 17,36</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19,24; 21,19</t>
+          <t>19,16; 21,2</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>17,31; 19,35</t>
+          <t>17,45; 19,36</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>17,23; 31,67</t>
+          <t>17,13; 30,76</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación a hacer esfuerzos moderados</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>32668</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>49113</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>55105</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>47054</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>47879</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>82093</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>81043</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>55641</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>80547</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>131206</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>136149</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>102695</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>23337; 44387</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>36753; 63446</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>43327; 70825</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>35113; 61429</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>36946; 61279</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>66431; 97730</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>65631; 96659</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>46238; 65985</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>65243; 98463</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>112144; 152467</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>116099; 160001</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>87640; 119045</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>60160</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>74870</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>60560</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>83864</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>122794</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>143276</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>110043</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>122234</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>182953</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>218146</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>170603</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>206098</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>46823; 77248</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>58287; 96316</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>47131; 76089</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>67208; 104764</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>103626; 142086</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>123188; 165145</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>90866; 130773</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>104701; 137674</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>159077; 209075</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>187267; 245898</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>144710; 192796</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>182906; 231351</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>23570</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46934</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>42877</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>41182</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>71885</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>79680</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>66540</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>67918</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>95455</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>126614</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>109417</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>109101</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15722; 35189</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35031; 61920</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>33121; 55409</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31736; 52270</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>56726; 86708</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>64532; 97801</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>50999; 83887</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>58045; 79109</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>77988; 114428</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>105890; 147523</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>92422; 130669</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>94481; 123663</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>33100</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>54833</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>52651</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>58694</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>75896</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>118878</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>101338</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>86946</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>108997</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>173710</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>153989</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>145640</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24116; 44640</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>41335; 72980</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>39833; 66609</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>45777; 76091</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>62831; 92516</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>102555; 139313</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>82981; 120690</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>48432; 110215</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>91723; 128769</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>151390; 198655</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>130462; 178126</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>104489; 172633</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15162</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>34853</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26743</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21657</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>34715</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>62633</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>48685</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>50157</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>49877</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>97486</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>75428</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>71815</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9216; 22971</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24562; 47899</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18222; 36629</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15577; 28771</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>25158; 46615</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>49331; 76500</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>36616; 61301</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>26694; 64657</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>37165; 63650</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>81124; 115584</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>61265; 92340</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>48177; 85423</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>28854</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>49834</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>53745</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>28121</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>69779</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>76009</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>84855</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>43471</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>98633</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>125843</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>138600</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>71592</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>20074; 39348</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>37432; 63427</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>41660; 68659</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>20765; 36799</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>54615; 85047</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>60719; 90906</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>69268; 100729</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>36050; 52804</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>82397; 121055</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>106016; 147737</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>119403; 162959</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>60273; 82571</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>75520</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>80739</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>88275</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>101195</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>136160</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>163670</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>147380</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>154033</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>211680</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>244409</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>235654</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>255227</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>61779; 92421</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>64558; 99660</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>70783; 108716</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>82059; 121345</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>116272; 156267</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>141124; 187422</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>126882; 171525</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>81413; 209522</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>185810; 239303</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>214714; 272104</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>208575; 268814</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>159422; 304490</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>96730</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>110212</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>90471</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>335040</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>164907</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>175164</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>162127</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>175465</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>261637</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>285376</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>252598</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>510506</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>80352; 116308</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>91993; 133697</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>74426; 110115</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>116665; 662409</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>142211; 189366</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>151611; 199014</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>139149; 188741</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>157558; 197285</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>233732; 293157</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>256661; 319772</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>224603; 284621</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>304051; 941657</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1437</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1283</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>365764</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>501388</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>470427</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>716808</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>724015</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>901402</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>802011</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>755865</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1089779</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1402790</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1272438</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1472673</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>333464; 400371</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>459556; 544870</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>433884; 512592</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>494994; 1322586</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>675730; 775730</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>849247; 954911</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>748953; 855052</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>619280; 823824</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1030860; 1155726</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1338548; 1480716</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1211092; 1343531</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1228718; 2206264</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>